--- a/biology/Botanique/Beschorneria/Beschorneria.xlsx
+++ b/biology/Botanique/Beschorneria/Beschorneria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beschorneria est un genre de plantes monocotylédones de la famille des Asparagaceae.
 Le botaniste allemand Karl Sigismund Kunth lui donna ce nom en l'honneur de Friedrich Wilhelm Christian Beschorner (pl) (1806-1873), directeur du premier asile polonais, à Owinsk, et botaniste amateur.
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Huit espèces sont acceptées dans ce genre à l'heure actuelle.
 Beschorneria albiflora Matuda
